--- a/statistics/TPS_模拟数据_单片_跨片_多组发送速率_多组片内节点数.xlsx
+++ b/statistics/TPS_模拟数据_单片_跨片_多组发送速率_多组片内节点数.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="原生tendermint" sheetId="2" r:id="rId2"/>
+    <sheet name="单片实验" sheetId="1" r:id="rId1"/>
+    <sheet name="跨片实验" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>单片测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,14 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跨片测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模拟数据 50%跨片率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,7 +78,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每秒钟发送1000tx，发送2min</t>
+    <t xml:space="preserve">阿里云第一次收官测试 phase日志 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s版 ruc单片实验 模拟数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多组跨片测试，模拟数据 50%跨片率 阿里云rancher1环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片8节点 100tx/s，模拟数据 50%跨片率 ruc k8s环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8s版 ruc单片实验 模拟数据 单片8节点 每秒发送200tx/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#shard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生tendermint节点 单片测试 阿里云rancher1环境</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,7 +142,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">阿里云第一次收官测试 phase日志 </t>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片6节点，每秒向每个分片发送700tx，无日志输出，有转储，阿里云rancher1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片4节点，每秒向每个分片发送500tx，无日志输出，有转储，阿里云rancher1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,8 +194,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -442,22 +497,56 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2">
+        <v>500</v>
+      </c>
+      <c r="J2" s="2">
+        <v>700</v>
+      </c>
+      <c r="K2" s="2">
+        <v>900</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1100</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>200</v>
@@ -475,9 +564,32 @@
         <v>1000</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2">
+        <v>688</v>
+      </c>
+      <c r="K3" s="2">
+        <v>870</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1074</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1694</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1784</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -497,9 +609,32 @@
         <v>836</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" s="2">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2">
+        <v>677</v>
+      </c>
+      <c r="K4" s="2">
+        <v>869</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1063</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1641</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1509</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -519,9 +654,32 @@
         <v>631</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="2">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="2">
+        <v>677</v>
+      </c>
+      <c r="K5" s="2">
+        <v>867</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1063</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1449</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1272</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>32</v>
       </c>
@@ -541,9 +699,32 @@
         <v>157</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2">
+        <v>624</v>
+      </c>
+      <c r="K6" s="2">
+        <v>663</v>
+      </c>
+      <c r="L6" s="2">
+        <v>869</v>
+      </c>
+      <c r="M6" s="2">
+        <v>791</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>64</v>
       </c>
@@ -563,31 +744,54 @@
         <v>107</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2">
+        <v>428</v>
+      </c>
+      <c r="J7" s="2">
+        <v>553</v>
+      </c>
+      <c r="K7" s="2">
+        <v>299</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>128</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -597,7 +801,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -607,311 +811,210 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>600</v>
+      </c>
+      <c r="E12" s="1">
+        <v>800</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
       <c r="B13" s="1">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="D13" s="1">
         <v>600</v>
       </c>
       <c r="E13" s="1">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="F13" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D14" s="1">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E14" s="1">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="F14" s="1">
-        <v>891</v>
-      </c>
-      <c r="G14" s="1">
-        <v>923</v>
-      </c>
-      <c r="H14" s="1">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="D15" s="1">
-        <v>586</v>
+        <v>398</v>
       </c>
       <c r="E15" s="1">
-        <v>784</v>
+        <v>274</v>
       </c>
       <c r="F15" s="1">
-        <v>971</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1422</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>143</v>
+      </c>
+      <c r="C16" s="1">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13</v>
+      </c>
+      <c r="F16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
-        <v>198</v>
-      </c>
-      <c r="C16" s="1">
-        <v>391</v>
-      </c>
-      <c r="D16" s="1">
-        <v>595</v>
-      </c>
-      <c r="E16" s="1">
-        <v>786</v>
-      </c>
-      <c r="F16" s="1">
-        <v>983</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1458</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1">
-        <v>195</v>
-      </c>
-      <c r="C17" s="1">
-        <v>390</v>
-      </c>
       <c r="D17" s="1">
-        <v>565</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
-        <v>679</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1">
-        <v>683</v>
-      </c>
-      <c r="G17" s="1">
-        <v>635</v>
-      </c>
-      <c r="H17" s="1">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="1">
-        <v>196</v>
-      </c>
-      <c r="C18" s="1">
-        <v>388</v>
-      </c>
-      <c r="D18" s="1">
-        <v>588</v>
-      </c>
-      <c r="E18" s="1">
-        <v>770</v>
-      </c>
-      <c r="F18" s="1">
-        <v>933</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1140</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1044</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="1">
-        <v>199</v>
-      </c>
-      <c r="C19" s="1">
-        <v>394</v>
-      </c>
-      <c r="D19" s="1">
-        <v>583</v>
-      </c>
-      <c r="E19" s="1">
-        <v>777</v>
-      </c>
-      <c r="F19" s="1">
-        <v>961</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1311</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1368</v>
-      </c>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
         <v>14</v>
-      </c>
-      <c r="B20" s="1">
-        <v>196</v>
-      </c>
-      <c r="C20" s="1">
-        <v>390</v>
-      </c>
-      <c r="D20" s="1">
-        <v>582</v>
-      </c>
-      <c r="E20" s="1">
-        <v>776</v>
-      </c>
-      <c r="F20" s="1">
-        <v>960</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1309</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1433</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
-        <v>194</v>
+        <v>393</v>
       </c>
       <c r="C21" s="1">
-        <v>398</v>
+        <v>788</v>
       </c>
       <c r="D21" s="1">
-        <v>586</v>
+        <v>1188</v>
       </c>
       <c r="E21" s="1">
-        <v>762</v>
+        <v>1579</v>
       </c>
       <c r="F21" s="1">
-        <v>956</v>
+        <v>1968</v>
       </c>
       <c r="G21" s="1">
-        <v>1304</v>
+        <v>2306</v>
       </c>
       <c r="H21" s="1">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -920,184 +1023,538 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="16" max="16" width="18.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>16</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1552</v>
+      </c>
+      <c r="C3">
+        <v>2771</v>
+      </c>
+      <c r="D3">
+        <v>4044</v>
+      </c>
+      <c r="E3">
+        <v>5469</v>
+      </c>
+      <c r="F3">
+        <v>6195</v>
+      </c>
+      <c r="G3">
+        <v>7561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
-        <v>500</v>
-      </c>
-      <c r="C2" s="1">
-        <v>700</v>
-      </c>
-      <c r="D2" s="1">
-        <v>900</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1646</v>
+      </c>
+      <c r="C8">
+        <v>4505</v>
+      </c>
+      <c r="D8">
+        <v>6881</v>
+      </c>
+      <c r="E8">
+        <v>9907</v>
+      </c>
+      <c r="F8">
+        <v>12355</v>
+      </c>
+      <c r="G8">
+        <v>14736</v>
+      </c>
+      <c r="H8">
+        <v>17469</v>
+      </c>
+      <c r="I8">
+        <v>17948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>180</v>
+      </c>
+      <c r="C13" s="1">
+        <v>375</v>
+      </c>
+      <c r="D13" s="1">
+        <v>560</v>
+      </c>
+      <c r="E13" s="1">
+        <v>731</v>
+      </c>
+      <c r="F13" s="1">
+        <v>887</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1">
+        <v>400</v>
+      </c>
+      <c r="D17" s="1">
+        <v>600</v>
+      </c>
+      <c r="E17" s="1">
+        <v>800</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="1">
         <v>2000</v>
       </c>
-      <c r="G2" s="1">
-        <v>3000</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>197</v>
+      </c>
+      <c r="C18" s="1">
+        <v>393</v>
+      </c>
+      <c r="D18" s="1">
+        <v>590</v>
+      </c>
+      <c r="E18" s="1">
+        <v>763</v>
+      </c>
+      <c r="F18" s="1">
+        <v>891</v>
+      </c>
+      <c r="G18" s="1">
+        <v>923</v>
+      </c>
+      <c r="H18" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1">
+        <v>396</v>
+      </c>
+      <c r="D19" s="1">
+        <v>586</v>
+      </c>
+      <c r="E19" s="1">
+        <v>784</v>
+      </c>
+      <c r="F19" s="1">
+        <v>971</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1422</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1">
-        <v>688</v>
-      </c>
-      <c r="D3" s="1">
-        <v>870</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1074</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1694</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1784</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
-        <v>677</v>
-      </c>
-      <c r="D4" s="1">
-        <v>869</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1063</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1641</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1509</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>677</v>
-      </c>
-      <c r="D5" s="1">
-        <v>867</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1063</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1449</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1272</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>32</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1">
-        <v>624</v>
-      </c>
-      <c r="D6" s="1">
-        <v>663</v>
-      </c>
-      <c r="E6" s="1">
-        <v>869</v>
-      </c>
-      <c r="F6" s="1">
-        <v>791</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1">
-        <v>428</v>
-      </c>
-      <c r="C7" s="1">
-        <v>553</v>
-      </c>
-      <c r="D7" s="1">
-        <v>299</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="1">
+        <v>198</v>
+      </c>
+      <c r="C20" s="1">
+        <v>391</v>
+      </c>
+      <c r="D20" s="1">
+        <v>595</v>
+      </c>
+      <c r="E20" s="1">
+        <v>786</v>
+      </c>
+      <c r="F20" s="1">
+        <v>983</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1458</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>195</v>
+      </c>
+      <c r="C21" s="1">
+        <v>390</v>
+      </c>
+      <c r="D21" s="1">
+        <v>565</v>
+      </c>
+      <c r="E21" s="1">
+        <v>679</v>
+      </c>
+      <c r="F21" s="1">
+        <v>683</v>
+      </c>
+      <c r="G21" s="1">
+        <v>635</v>
+      </c>
+      <c r="H21" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>196</v>
+      </c>
+      <c r="C22" s="1">
+        <v>388</v>
+      </c>
+      <c r="D22" s="1">
+        <v>588</v>
+      </c>
+      <c r="E22" s="1">
+        <v>770</v>
+      </c>
+      <c r="F22" s="1">
+        <v>933</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1140</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>199</v>
+      </c>
+      <c r="C23" s="1">
+        <v>394</v>
+      </c>
+      <c r="D23" s="1">
+        <v>583</v>
+      </c>
+      <c r="E23" s="1">
+        <v>777</v>
+      </c>
+      <c r="F23" s="1">
+        <v>961</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1311</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="1">
+        <v>196</v>
+      </c>
+      <c r="C24" s="1">
+        <v>390</v>
+      </c>
+      <c r="D24" s="1">
+        <v>582</v>
+      </c>
+      <c r="E24" s="1">
+        <v>776</v>
+      </c>
+      <c r="F24" s="1">
+        <v>960</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1309</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>194</v>
+      </c>
+      <c r="C25" s="1">
+        <v>398</v>
+      </c>
+      <c r="D25" s="1">
+        <v>586</v>
+      </c>
+      <c r="E25" s="1">
+        <v>762</v>
+      </c>
+      <c r="F25" s="1">
+        <v>956</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1304</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/statistics/TPS_模拟数据_单片_跨片_多组发送速率_多组片内节点数.xlsx
+++ b/statistics/TPS_模拟数据_单片_跨片_多组发送速率_多组片内节点数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="单片实验" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>单片测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>单片4节点，每秒向每个分片发送500tx，无日志输出，有转储，阿里云rancher1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片6节点，尽量保证峰值TPS，k8s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片4节点 k8s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +211,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,13 +512,13 @@
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -812,11 +823,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1023,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1034,18 +1045,18 @@
     <col min="16" max="16" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1068,7 +1079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1091,452 +1102,514 @@
         <v>7561</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1454</v>
+      </c>
+      <c r="C7">
+        <v>1803</v>
+      </c>
+      <c r="D7">
+        <v>1856</v>
+      </c>
+      <c r="E7">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E7">
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F7">
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="G7">
+      <c r="G10">
         <v>48</v>
       </c>
-      <c r="H7">
+      <c r="H10">
         <v>56</v>
       </c>
-      <c r="I7">
+      <c r="I10">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="R10">
+        <v>56</v>
+      </c>
+      <c r="S10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>1646</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>4505</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>6881</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>9907</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>12355</v>
       </c>
-      <c r="G8">
+      <c r="G11">
         <v>14736</v>
       </c>
-      <c r="H8">
+      <c r="H11">
         <v>17469</v>
       </c>
-      <c r="I8">
+      <c r="I11">
         <v>17948</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="R11">
+        <v>17469</v>
+      </c>
+      <c r="S11">
+        <v>17948</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <v>12</v>
-      </c>
-      <c r="H12" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1">
-        <v>180</v>
-      </c>
-      <c r="C13" s="1">
-        <v>375</v>
-      </c>
-      <c r="D13" s="1">
-        <v>560</v>
-      </c>
-      <c r="E13" s="1">
-        <v>731</v>
-      </c>
-      <c r="F13" s="1">
-        <v>887</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1004</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2650</v>
+      </c>
+      <c r="C15">
+        <v>3104</v>
+      </c>
+      <c r="D15">
+        <v>3845</v>
+      </c>
+      <c r="E15">
+        <v>3220</v>
+      </c>
+      <c r="F15">
+        <v>12355</v>
+      </c>
+      <c r="G15">
+        <v>14736</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1">
-        <v>200</v>
-      </c>
-      <c r="C17" s="1">
-        <v>400</v>
-      </c>
-      <c r="D17" s="1">
-        <v>600</v>
-      </c>
-      <c r="E17" s="1">
-        <v>800</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H17" s="1">
-        <v>2000</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="1">
-        <v>197</v>
-      </c>
       <c r="C18" s="1">
-        <v>393</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>590</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1">
-        <v>763</v>
+        <v>8</v>
       </c>
       <c r="F18" s="1">
-        <v>891</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>923</v>
+        <v>12</v>
       </c>
       <c r="H18" s="1">
-        <v>863</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C19" s="1">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="D19" s="1">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="E19" s="1">
-        <v>784</v>
+        <v>731</v>
       </c>
       <c r="F19" s="1">
-        <v>971</v>
+        <v>887</v>
       </c>
       <c r="G19" s="1">
-        <v>1422</v>
+        <v>1004</v>
       </c>
       <c r="H19" s="1">
-        <v>1864</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1">
-        <v>198</v>
-      </c>
-      <c r="C20" s="1">
-        <v>391</v>
-      </c>
-      <c r="D20" s="1">
-        <v>595</v>
-      </c>
-      <c r="E20" s="1">
-        <v>786</v>
-      </c>
-      <c r="F20" s="1">
-        <v>983</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1458</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="1">
-        <v>195</v>
-      </c>
-      <c r="C21" s="1">
-        <v>390</v>
-      </c>
-      <c r="D21" s="1">
-        <v>565</v>
-      </c>
-      <c r="E21" s="1">
-        <v>679</v>
-      </c>
-      <c r="F21" s="1">
-        <v>683</v>
-      </c>
-      <c r="G21" s="1">
-        <v>635</v>
-      </c>
-      <c r="H21" s="1">
-        <v>608</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>196</v>
-      </c>
-      <c r="C22" s="1">
-        <v>388</v>
-      </c>
-      <c r="D22" s="1">
-        <v>588</v>
-      </c>
-      <c r="E22" s="1">
-        <v>770</v>
-      </c>
-      <c r="F22" s="1">
-        <v>933</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1140</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1044</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D23" s="1">
-        <v>583</v>
+        <v>600</v>
       </c>
       <c r="E23" s="1">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="F23" s="1">
-        <v>961</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="1">
-        <v>1311</v>
+        <v>1500</v>
       </c>
       <c r="H23" s="1">
-        <v>1368</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="1">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D24" s="1">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="E24" s="1">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="F24" s="1">
-        <v>960</v>
+        <v>891</v>
       </c>
       <c r="G24" s="1">
-        <v>1309</v>
+        <v>923</v>
       </c>
       <c r="H24" s="1">
-        <v>1433</v>
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C25" s="1">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D25" s="1">
         <v>586</v>
       </c>
       <c r="E25" s="1">
+        <v>784</v>
+      </c>
+      <c r="F25" s="1">
+        <v>971</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1422</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>198</v>
+      </c>
+      <c r="C26" s="1">
+        <v>391</v>
+      </c>
+      <c r="D26" s="1">
+        <v>595</v>
+      </c>
+      <c r="E26" s="1">
+        <v>786</v>
+      </c>
+      <c r="F26" s="1">
+        <v>983</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1458</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1">
+        <v>390</v>
+      </c>
+      <c r="D27" s="1">
+        <v>565</v>
+      </c>
+      <c r="E27" s="1">
+        <v>679</v>
+      </c>
+      <c r="F27" s="1">
+        <v>683</v>
+      </c>
+      <c r="G27" s="1">
+        <v>635</v>
+      </c>
+      <c r="H27" s="1">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>196</v>
+      </c>
+      <c r="C28" s="1">
+        <v>388</v>
+      </c>
+      <c r="D28" s="1">
+        <v>588</v>
+      </c>
+      <c r="E28" s="1">
+        <v>770</v>
+      </c>
+      <c r="F28" s="1">
+        <v>933</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1140</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1">
+        <v>199</v>
+      </c>
+      <c r="C29" s="1">
+        <v>394</v>
+      </c>
+      <c r="D29" s="1">
+        <v>583</v>
+      </c>
+      <c r="E29" s="1">
+        <v>777</v>
+      </c>
+      <c r="F29" s="1">
+        <v>961</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1311</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1">
+        <v>196</v>
+      </c>
+      <c r="C30" s="1">
+        <v>390</v>
+      </c>
+      <c r="D30" s="1">
+        <v>582</v>
+      </c>
+      <c r="E30" s="1">
+        <v>776</v>
+      </c>
+      <c r="F30" s="1">
+        <v>960</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1309</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1">
+        <v>194</v>
+      </c>
+      <c r="C31" s="1">
+        <v>398</v>
+      </c>
+      <c r="D31" s="1">
+        <v>586</v>
+      </c>
+      <c r="E31" s="1">
         <v>762</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F31" s="1">
         <v>956</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G31" s="1">
         <v>1304</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H31" s="1">
         <v>1376</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
@@ -1548,10 +1621,73 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
